--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_2.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_0_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1252269.295952611</v>
+        <v>-1188841.709582964</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17440984.00909676</v>
+        <v>16759483.4356938</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484447</v>
+        <v>492028.9342484445</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10244484.85333345</v>
+        <v>10230965.57335299</v>
       </c>
     </row>
     <row r="11">
@@ -656,16 +656,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>397.9158510059551</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>29.22939890189217</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -817,22 +817,22 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>53.11891225667689</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>12.20390561890691</v>
       </c>
       <c r="G4" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -865,7 +865,7 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>243.4206519573293</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -893,13 +893,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>424.2958575201043</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -908,10 +908,10 @@
         <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -944,16 +944,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>63.33769368798082</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>77.87073574979158</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0.8069000430770075</v>
@@ -962,7 +962,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>13.76216761669308</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1102,13 +1102,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>16.4324721951265</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1117,7 +1117,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -1133,25 +1133,25 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>60.69092040857829</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>33.0650673611316</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
         <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1297,16 +1297,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>87.77334973307141</v>
@@ -1336,25 +1336,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>151.2399069798599</v>
+        <v>98.9802170693018</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1373,7 +1373,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
@@ -1385,10 +1385,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1427,13 +1427,13 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655117</v>
+        <v>131.2782143439145</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>406.223001091397</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
         <v>404.2032624633431</v>
@@ -1540,13 +1540,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225706</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1591,7 +1591,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
-        <v>19.80087630034372</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y13" t="n">
         <v>225.1454739790328</v>
@@ -1655,10 +1655,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800233</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556909</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
@@ -1765,7 +1765,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
-        <v>31.24391673888117</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
         <v>164.2192128704925</v>
@@ -1780,10 +1780,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>56.72042565247625</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,7 +1822,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800578</v>
       </c>
       <c r="C17" t="n">
         <v>433.7610480884109</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864836</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -1999,16 +1999,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>141.7246276011701</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
         <v>174.9399834978613</v>
@@ -2017,10 +2017,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149794</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2239,7 +2239,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
         <v>164.2192128704925</v>
@@ -2254,7 +2254,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>50.38971918733571</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,7 +2488,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2716,7 +2716,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2725,10 +2725,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>27.07950026194634</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
         <v>87.77334973307141</v>
@@ -2761,13 +2761,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
-        <v>157.6489550149833</v>
+        <v>98.73120706589812</v>
       </c>
       <c r="T28" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2959,16 +2959,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>31.28831241118197</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U31" t="n">
         <v>275.6486707394257</v>
@@ -3202,10 +3202,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H34" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277814</v>
       </c>
       <c r="I34" t="n">
-        <v>71.53763939432362</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S34" t="n">
         <v>141.4132446762359</v>
@@ -3439,10 +3439,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H37" t="n">
-        <v>122.2674422277814</v>
+        <v>122.2674422277819</v>
       </c>
       <c r="I37" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S37" t="n">
         <v>141.4132446762359</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T38" t="n">
         <v>201.6308445169444</v>
@@ -3679,7 +3679,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I40" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934044</v>
       </c>
       <c r="S40" t="n">
         <v>141.4132446762359</v>
@@ -3715,7 +3715,7 @@
         <v>227.1849416185819</v>
       </c>
       <c r="U40" t="n">
-        <v>259.4129604006781</v>
+        <v>259.4129604006783</v>
       </c>
       <c r="V40" t="n">
         <v>267.8502427095265</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T41" t="n">
         <v>201.6308445169444</v>
@@ -3913,10 +3913,10 @@
         <v>147.6996518856832</v>
       </c>
       <c r="H43" t="n">
-        <v>122.2674422277819</v>
+        <v>122.2674422277813</v>
       </c>
       <c r="I43" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S43" t="n">
         <v>141.4132446762359</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>66.57964473925399</v>
+        <v>66.57964473925398</v>
       </c>
       <c r="T44" t="n">
         <v>201.6308445169444</v>
@@ -4153,7 +4153,7 @@
         <v>122.2674422277819</v>
       </c>
       <c r="I46" t="n">
-        <v>71.53763939432405</v>
+        <v>71.53763939432403</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>4.967932742934465</v>
+        <v>4.967932742934462</v>
       </c>
       <c r="S46" t="n">
         <v>141.4132446762359</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>557.9336779278854</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="C2" t="n">
-        <v>523.8316091517128</v>
+        <v>863.7463012287189</v>
       </c>
       <c r="D2" t="n">
-        <v>491.9622283665614</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="E2" t="n">
-        <v>462.2278875652606</v>
+        <v>461.8110981924006</v>
       </c>
       <c r="F2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
@@ -4355,25 +4355,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S2" t="n">
-        <v>1667.658784724971</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T2" t="n">
-        <v>1667.658784724971</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U2" t="n">
-        <v>1408.436482041988</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="V2" t="n">
-        <v>1408.436482041988</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="W2" t="n">
-        <v>1407.621431493425</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="X2" t="n">
-        <v>988.4789680727357</v>
+        <v>1292.327975491451</v>
       </c>
       <c r="Y2" t="n">
-        <v>580.1928443723891</v>
+        <v>1292.327975491451</v>
       </c>
     </row>
     <row r="3">
@@ -4462,22 +4462,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>828.2175918241737</v>
+        <v>473.0837817107156</v>
       </c>
       <c r="C4" t="n">
-        <v>828.2175918241737</v>
+        <v>300.5220701939406</v>
       </c>
       <c r="D4" t="n">
-        <v>774.5621248982375</v>
+        <v>300.5220701939406</v>
       </c>
       <c r="E4" t="n">
-        <v>604.8041211489747</v>
+        <v>300.5220701939406</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>288.1948928011053</v>
       </c>
       <c r="G4" t="n">
-        <v>262.5057921365585</v>
+        <v>122.603617826933</v>
       </c>
       <c r="H4" t="n">
         <v>122.603617826933</v>
@@ -4489,19 +4489,19 @@
         <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>538.7332355342593</v>
+        <v>437.4083829648294</v>
       </c>
       <c r="M4" t="n">
-        <v>958.7861344791625</v>
+        <v>857.4612819097326</v>
       </c>
       <c r="N4" t="n">
-        <v>1349.676536110076</v>
+        <v>1277.514180854636</v>
       </c>
       <c r="O4" t="n">
-        <v>1349.676536110076</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="P4" t="n">
         <v>1697.183430080417</v>
@@ -4513,25 +4513,25 @@
         <v>1697.183430080417</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T4" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="U4" t="n">
-        <v>1292.062614956869</v>
+        <v>1451.303983658873</v>
       </c>
       <c r="V4" t="n">
-        <v>1292.062614956869</v>
+        <v>1164.348475529303</v>
       </c>
       <c r="W4" t="n">
-        <v>1020.036210543161</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="X4" t="n">
-        <v>1020.036210543161</v>
+        <v>892.3220711155946</v>
       </c>
       <c r="Y4" t="n">
-        <v>1020.036210543161</v>
+        <v>664.9024004297028</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>547.9560900011804</v>
+        <v>1671.534951891204</v>
       </c>
       <c r="C5" t="n">
-        <v>119.3744157384487</v>
+        <v>1233.392479074628</v>
       </c>
       <c r="D5" t="n">
-        <v>87.50503495329731</v>
+        <v>797.4826942490721</v>
       </c>
       <c r="E5" t="n">
-        <v>57.77069415199655</v>
+        <v>767.7483534477714</v>
       </c>
       <c r="F5" t="n">
-        <v>33.94366860160834</v>
+        <v>743.9213278973832</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5234965206471</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.529033875898</v>
       </c>
       <c r="M5" t="n">
-        <v>33.94366860160834</v>
+        <v>632.529033875898</v>
       </c>
       <c r="N5" t="n">
-        <v>267.8706684926505</v>
+        <v>632.529033875898</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.271640678707</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.014247481516</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.513033440111</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193167</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.015224377004</v>
       </c>
       <c r="T5" t="n">
-        <v>1477.116202953456</v>
+        <v>2522.037756005307</v>
       </c>
       <c r="U5" t="n">
-        <v>1477.116202953456</v>
+        <v>2522.037756005307</v>
       </c>
       <c r="V5" t="n">
-        <v>1398.458894115283</v>
+        <v>2522.037756005307</v>
       </c>
       <c r="W5" t="n">
-        <v>1397.64384356672</v>
+        <v>2521.222705456744</v>
       </c>
       <c r="X5" t="n">
-        <v>978.5013801460308</v>
+        <v>2102.080242036055</v>
       </c>
       <c r="Y5" t="n">
-        <v>974.2556604860882</v>
+        <v>1693.794118335708</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5650869551562</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1086257917984</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0183369383517</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.8979222653054</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.514083881467</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.12899414765087</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="L6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="M6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="N6" t="n">
-        <v>319.8519551513677</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="O6" t="n">
-        <v>739.9048540962709</v>
+        <v>397.9787799134482</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.721386716257</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.460325348333</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.633103442672</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.177665891055</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1522.999022221657</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.662475221625</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.544957283625</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2222030168186</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3547672556986</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8689880349193</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>435.0675036533336</v>
+        <v>741.0835044133519</v>
       </c>
       <c r="C7" t="n">
-        <v>262.5057921365585</v>
+        <v>568.5217928965768</v>
       </c>
       <c r="D7" t="n">
-        <v>262.5057921365585</v>
+        <v>402.6438000980995</v>
       </c>
       <c r="E7" t="n">
-        <v>262.5057921365585</v>
+        <v>232.8857963488368</v>
       </c>
       <c r="F7" t="n">
-        <v>262.5057921365585</v>
+        <v>218.9846169380357</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.39334196386335</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9730271285532</v>
       </c>
       <c r="K7" t="n">
-        <v>308.7021231727439</v>
+        <v>414.7314816996888</v>
       </c>
       <c r="L7" t="n">
-        <v>341.7616130750586</v>
+        <v>832.9413634676499</v>
       </c>
       <c r="M7" t="n">
-        <v>761.8145120199619</v>
+        <v>1292.425230648563</v>
       </c>
       <c r="N7" t="n">
-        <v>761.8145120199619</v>
+        <v>1734.684033806207</v>
       </c>
       <c r="O7" t="n">
-        <v>1181.483761245743</v>
+        <v>2154.353283031989</v>
       </c>
       <c r="P7" t="n">
-        <v>1528.990655216085</v>
+        <v>2501.860177002331</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2669.667098193167</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>2648.249276898539</v>
       </c>
       <c r="S7" t="n">
-        <v>1675.765608785789</v>
+        <v>2489.007908196536</v>
       </c>
       <c r="T7" t="n">
-        <v>1429.886162364244</v>
+        <v>2243.128461774991</v>
       </c>
       <c r="U7" t="n">
-        <v>1413.28770560149</v>
+        <v>1964.695461028096</v>
       </c>
       <c r="V7" t="n">
-        <v>1126.332197471921</v>
+        <v>1677.739952898527</v>
       </c>
       <c r="W7" t="n">
-        <v>854.3057930582124</v>
+        <v>1405.713548484818</v>
       </c>
       <c r="X7" t="n">
-        <v>854.3057930582124</v>
+        <v>1160.321793818231</v>
       </c>
       <c r="Y7" t="n">
-        <v>626.8861223723206</v>
+        <v>932.9021231323391</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>554.8743158913576</v>
+        <v>2078.642592532902</v>
       </c>
       <c r="C8" t="n">
-        <v>520.7722471151849</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D8" t="n">
-        <v>488.9028663300335</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>459.1685255287327</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>435.3414999783445</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>33.94366860160834</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>33.94366860160834</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>267.8706684926505</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="O8" t="n">
-        <v>687.9235674375537</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="U8" t="n">
-        <v>1437.961127397434</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="V8" t="n">
-        <v>1437.961127397434</v>
+        <v>2525.1049926066</v>
       </c>
       <c r="W8" t="n">
-        <v>1404.562069456897</v>
+        <v>2524.289942058037</v>
       </c>
       <c r="X8" t="n">
-        <v>1389.460010076612</v>
+        <v>2509.187882677752</v>
       </c>
       <c r="Y8" t="n">
-        <v>981.1738863762654</v>
+        <v>2504.942163017809</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>33.94366860160834</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>319.8519551513677</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>739.9048540962709</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
-        <v>1159.957753041174</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q9" t="n">
-        <v>1580.010651986078</v>
+        <v>1605.602207829152</v>
       </c>
       <c r="R9" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>766.5367714259833</v>
+        <v>992.5572028308845</v>
       </c>
       <c r="C10" t="n">
-        <v>593.9750599092082</v>
+        <v>819.9954913141095</v>
       </c>
       <c r="D10" t="n">
-        <v>428.0970671107308</v>
+        <v>654.1174985156322</v>
       </c>
       <c r="E10" t="n">
-        <v>428.0970671107308</v>
+        <v>484.3594947663694</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>307.6524407281256</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>395.2818083374338</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>395.2818083374338</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>815.3347072823371</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1235.38760622724</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1544.415847272478</v>
+        <v>2548.662987895081</v>
       </c>
       <c r="T10" t="n">
-        <v>1544.415847272478</v>
+        <v>2302.783541473536</v>
       </c>
       <c r="U10" t="n">
-        <v>1265.982846525583</v>
+        <v>2024.350540726642</v>
       </c>
       <c r="V10" t="n">
-        <v>1265.982846525583</v>
+        <v>1737.395032597072</v>
       </c>
       <c r="W10" t="n">
-        <v>993.956442111875</v>
+        <v>1465.368628183364</v>
       </c>
       <c r="X10" t="n">
-        <v>993.956442111875</v>
+        <v>1219.976873516776</v>
       </c>
       <c r="Y10" t="n">
-        <v>766.5367714259833</v>
+        <v>992.5572028308845</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1780.195800875443</v>
+        <v>2524.205911056827</v>
       </c>
       <c r="C11" t="n">
-        <v>1342.053328058867</v>
+        <v>2086.06343824025</v>
       </c>
       <c r="D11" t="n">
-        <v>1342.053328058867</v>
+        <v>1650.153653414695</v>
       </c>
       <c r="E11" t="n">
-        <v>908.2785832171617</v>
+        <v>1216.37890857299</v>
       </c>
       <c r="F11" t="n">
-        <v>480.4111536263694</v>
+        <v>788.5114789821977</v>
       </c>
       <c r="G11" t="n">
-        <v>79.01332224963326</v>
+        <v>387.1136476054616</v>
       </c>
       <c r="H11" t="n">
-        <v>79.01332224963326</v>
+        <v>97.9834930486778</v>
       </c>
       <c r="I11" t="n">
-        <v>79.01332224963326</v>
+        <v>97.56670367581781</v>
       </c>
       <c r="J11" t="n">
-        <v>79.01332224963326</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K11" t="n">
-        <v>79.01332224963326</v>
+        <v>1228.46180823909</v>
       </c>
       <c r="L11" t="n">
-        <v>79.01332224963326</v>
+        <v>1228.46180823909</v>
       </c>
       <c r="M11" t="n">
-        <v>1056.803185088845</v>
+        <v>1228.46180823909</v>
       </c>
       <c r="N11" t="n">
-        <v>2034.593047928056</v>
+        <v>2354.192791675537</v>
       </c>
       <c r="O11" t="n">
-        <v>2575.857451689672</v>
+        <v>3334.372458245844</v>
       </c>
       <c r="P11" t="n">
-        <v>3404.167326523068</v>
+        <v>4162.682333079239</v>
       </c>
       <c r="Q11" t="n">
-        <v>3950.666112481663</v>
+        <v>4709.181119037834</v>
       </c>
       <c r="R11" t="n">
-        <v>3950.666112481663</v>
+        <v>4878.33518379089</v>
       </c>
       <c r="S11" t="n">
-        <v>3867.0142386655</v>
+        <v>4794.683309974727</v>
       </c>
       <c r="T11" t="n">
-        <v>3646.947011538538</v>
+        <v>4574.616082847766</v>
       </c>
       <c r="U11" t="n">
-        <v>3387.724708855555</v>
+        <v>4315.393780164783</v>
       </c>
       <c r="V11" t="n">
-        <v>3025.107758789381</v>
+        <v>4182.789523251738</v>
       </c>
       <c r="W11" t="n">
-        <v>3025.107758789381</v>
+        <v>3777.934068662771</v>
       </c>
       <c r="X11" t="n">
-        <v>2614.781495060698</v>
+        <v>3358.791605242081</v>
       </c>
       <c r="Y11" t="n">
-        <v>2206.495371360351</v>
+        <v>2950.505481541735</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>585.1850672409261</v>
+        <v>603.7384486671106</v>
       </c>
       <c r="C12" t="n">
-        <v>478.7286060775683</v>
+        <v>497.2819875037529</v>
       </c>
       <c r="D12" t="n">
-        <v>383.6383172241216</v>
+        <v>402.1916986503061</v>
       </c>
       <c r="E12" t="n">
-        <v>289.5179025510753</v>
+        <v>308.0712839772598</v>
       </c>
       <c r="F12" t="n">
-        <v>206.1340641672369</v>
+        <v>224.6874455934214</v>
       </c>
       <c r="G12" t="n">
-        <v>120.7489744334208</v>
+        <v>139.3023558596053</v>
       </c>
       <c r="H12" t="n">
-        <v>79.01332224963326</v>
+        <v>97.56670367581781</v>
       </c>
       <c r="I12" t="n">
-        <v>79.01332224963326</v>
+        <v>97.60290339162182</v>
       </c>
       <c r="J12" t="n">
-        <v>79.01332224963326</v>
+        <v>422.1612283578341</v>
       </c>
       <c r="K12" t="n">
-        <v>79.01332224963326</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="L12" t="n">
-        <v>79.01332224963326</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="M12" t="n">
-        <v>79.01332224963326</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="N12" t="n">
-        <v>79.01332224963326</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="O12" t="n">
-        <v>264.6182005228287</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="P12" t="n">
-        <v>1084.341367002027</v>
+        <v>1102.894748428211</v>
       </c>
       <c r="Q12" t="n">
-        <v>1625.080305634102</v>
+        <v>1643.633687060287</v>
       </c>
       <c r="R12" t="n">
-        <v>1742.253083728442</v>
+        <v>1760.806465154627</v>
       </c>
       <c r="S12" t="n">
-        <v>1678.797646176825</v>
+        <v>1697.35102760301</v>
       </c>
       <c r="T12" t="n">
-        <v>1548.619002507427</v>
+        <v>1567.172383933611</v>
       </c>
       <c r="U12" t="n">
-        <v>1372.282455507395</v>
+        <v>1390.83583693358</v>
       </c>
       <c r="V12" t="n">
-        <v>1173.164937569394</v>
+        <v>1191.718318995579</v>
       </c>
       <c r="W12" t="n">
-        <v>987.8421833025884</v>
+        <v>1006.395564728773</v>
       </c>
       <c r="X12" t="n">
-        <v>832.9747475414684</v>
+        <v>851.5281289676529</v>
       </c>
       <c r="Y12" t="n">
-        <v>706.4889683206892</v>
+        <v>725.0423497468737</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>992.4802078873422</v>
+        <v>948.0627407527491</v>
       </c>
       <c r="C13" t="n">
-        <v>819.9184963705671</v>
+        <v>775.501029235974</v>
       </c>
       <c r="D13" t="n">
-        <v>654.0405035720898</v>
+        <v>609.6230364374967</v>
       </c>
       <c r="E13" t="n">
-        <v>484.2824998228272</v>
+        <v>439.8650326882339</v>
       </c>
       <c r="F13" t="n">
-        <v>307.5754457845834</v>
+        <v>263.1579786499901</v>
       </c>
       <c r="G13" t="n">
-        <v>307.5754457845834</v>
+        <v>97.56670367581781</v>
       </c>
       <c r="H13" t="n">
-        <v>167.6732714749579</v>
+        <v>97.56670367581781</v>
       </c>
       <c r="I13" t="n">
-        <v>79.01332224963326</v>
+        <v>97.56670367581781</v>
       </c>
       <c r="J13" t="n">
-        <v>165.5930074143231</v>
+        <v>184.1463888405077</v>
       </c>
       <c r="K13" t="n">
-        <v>440.3514619854587</v>
+        <v>458.9048434116432</v>
       </c>
       <c r="L13" t="n">
-        <v>858.5613437534198</v>
+        <v>877.1147251796042</v>
       </c>
       <c r="M13" t="n">
-        <v>1318.045210934333</v>
+        <v>1336.598592360517</v>
       </c>
       <c r="N13" t="n">
-        <v>1760.304014091977</v>
+        <v>1778.857395518162</v>
       </c>
       <c r="O13" t="n">
-        <v>2179.973263317759</v>
+        <v>2198.526644743943</v>
       </c>
       <c r="P13" t="n">
-        <v>2527.480157288101</v>
+        <v>2546.033538714285</v>
       </c>
       <c r="Q13" t="n">
-        <v>2695.672932152433</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="R13" t="n">
-        <v>2674.255110857805</v>
+        <v>2714.226313578617</v>
       </c>
       <c r="S13" t="n">
-        <v>2515.013742155801</v>
+        <v>2695.987144535933</v>
       </c>
       <c r="T13" t="n">
-        <v>2269.134295734256</v>
+        <v>2450.107698114388</v>
       </c>
       <c r="U13" t="n">
-        <v>1990.701294987362</v>
+        <v>2171.674697367494</v>
       </c>
       <c r="V13" t="n">
-        <v>1703.745786857792</v>
+        <v>1884.719189237924</v>
       </c>
       <c r="W13" t="n">
-        <v>1431.719382444084</v>
+        <v>1612.692784824216</v>
       </c>
       <c r="X13" t="n">
-        <v>1411.718497292221</v>
+        <v>1367.301030157628</v>
       </c>
       <c r="Y13" t="n">
-        <v>1184.298826606329</v>
+        <v>1139.881359471736</v>
       </c>
     </row>
     <row r="14">
@@ -5267,7 +5267,7 @@
         <v>793.2056155771595</v>
       </c>
       <c r="G14" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004233</v>
       </c>
       <c r="H14" t="n">
         <v>102.6776296436396</v>
@@ -5282,28 +5282,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L14" t="n">
-        <v>306.1208027766299</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M14" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N14" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O14" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P14" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q14" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R14" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S14" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T14" t="n">
         <v>4809.322912595856</v>
@@ -5334,16 +5334,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C15" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D15" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E15" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F15" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G15" t="n">
         <v>143.9964924545671</v>
@@ -5352,25 +5352,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I15" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J15" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N15" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O15" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P15" t="n">
         <v>1107.588885023173</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>811.7546776883914</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C16" t="n">
-        <v>780.1951658309357</v>
+        <v>926.148474301186</v>
       </c>
       <c r="D16" t="n">
-        <v>614.3171730324584</v>
+        <v>760.2704815027087</v>
       </c>
       <c r="E16" t="n">
-        <v>444.5591692831957</v>
+        <v>590.5124777534459</v>
       </c>
       <c r="F16" t="n">
-        <v>267.852115244952</v>
+        <v>413.8054237152021</v>
       </c>
       <c r="G16" t="n">
-        <v>102.2608402707796</v>
+        <v>248.2141487410298</v>
       </c>
       <c r="H16" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961042</v>
       </c>
       <c r="I16" t="n">
         <v>102.2608402707796</v>
@@ -5470,16 +5470,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V16" t="n">
-        <v>1748.411126173566</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W16" t="n">
-        <v>1476.384721759858</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X16" t="n">
-        <v>1230.99296709327</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y16" t="n">
-        <v>1003.573296407379</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="17">
@@ -5501,7 +5501,7 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5513,49 +5513,49 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="K17" t="n">
-        <v>102.2608402707796</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="L17" t="n">
-        <v>306.1208027766299</v>
+        <v>306.1208027766281</v>
       </c>
       <c r="M17" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.168637987179</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423626</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993932</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827329</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785923</v>
       </c>
       <c r="R17" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S17" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722816</v>
       </c>
       <c r="T17" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595855</v>
       </c>
       <c r="U17" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912872</v>
       </c>
       <c r="V17" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846698</v>
       </c>
       <c r="W17" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X17" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837042</v>
       </c>
       <c r="Y17" t="n">
         <v>2955.199618136696</v>
@@ -5571,16 +5571,16 @@
         <v>608.4325852620724</v>
       </c>
       <c r="C18" t="n">
-        <v>501.9761240987147</v>
+        <v>501.9761240987146</v>
       </c>
       <c r="D18" t="n">
-        <v>406.885835245268</v>
+        <v>406.8858352452679</v>
       </c>
       <c r="E18" t="n">
-        <v>312.7654205722217</v>
+        <v>312.7654205722216</v>
       </c>
       <c r="F18" t="n">
-        <v>229.3815821883833</v>
+        <v>229.3815821883832</v>
       </c>
       <c r="G18" t="n">
         <v>143.9964924545671</v>
@@ -5589,31 +5589,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I18" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J18" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K18" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="L18" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="M18" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="N18" t="n">
-        <v>102.2608402707796</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="O18" t="n">
-        <v>287.8657185439749</v>
+        <v>1133.616358467827</v>
       </c>
       <c r="P18" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q18" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R18" t="n">
         <v>1765.500601749588</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>982.1554751127546</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C19" t="n">
-        <v>838.9992856166232</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D19" t="n">
-        <v>673.1212928181459</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
         <v>102.2608402707796</v>
@@ -5695,28 +5695,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S19" t="n">
-        <v>2538.261260176952</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T19" t="n">
-        <v>2292.381813755407</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U19" t="n">
-        <v>2013.948813008512</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V19" t="n">
-        <v>1726.993304878942</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W19" t="n">
-        <v>1454.966900465234</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X19" t="n">
-        <v>1209.575145798646</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1554751127546</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5729,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C20" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D20" t="n">
         <v>1654.847790009657</v>
@@ -5738,61 +5738,61 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771606</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K20" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L20" t="n">
-        <v>306.1208027766299</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M20" t="n">
-        <v>1463.168637987181</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
         <v>2955.199618136697</v>
@@ -5826,22 +5826,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N21" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O21" t="n">
         <v>287.8657185439749</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>920.0973401405612</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>920.0973401405612</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>754.2193473420839</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>584.4613435928212</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5935,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2668.021743923745</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2422.1422975022</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2143.709296755305</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1856.753788625736</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1584.727384212028</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1339.33562954544</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1111.915958859548</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5987,13 +5987,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>306.120802776629</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M23" t="n">
         <v>1463.16863798718</v>
@@ -6063,22 +6063,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="L24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="M24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="N24" t="n">
-        <v>102.2608402707796</v>
+        <v>287.8657185439749</v>
       </c>
       <c r="O24" t="n">
         <v>287.8657185439749</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6230,22 +6230,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="L26" t="n">
-        <v>1177.320806523639</v>
+        <v>306.120802776629</v>
       </c>
       <c r="M26" t="n">
-        <v>2334.36864173419</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6300,25 +6300,25 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>287.8657185439749</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
         <v>1107.588885023173</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1068.769857140658</v>
+        <v>849.8497331100115</v>
       </c>
       <c r="C28" t="n">
-        <v>896.2081456238831</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="D28" t="n">
-        <v>730.3301528254058</v>
+        <v>677.2880215932364</v>
       </c>
       <c r="E28" t="n">
-        <v>560.572149076143</v>
+        <v>507.5300178439736</v>
       </c>
       <c r="F28" t="n">
-        <v>383.8650950378992</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="G28" t="n">
-        <v>218.2738200637269</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
         <v>190.9207894961043</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2597.774136893195</v>
       </c>
       <c r="T28" t="n">
-        <v>2292.381813755403</v>
+        <v>2351.89469047165</v>
       </c>
       <c r="U28" t="n">
-        <v>2292.381813755403</v>
+        <v>2073.461689724756</v>
       </c>
       <c r="V28" t="n">
-        <v>2005.426305625833</v>
+        <v>1786.506181595186</v>
       </c>
       <c r="W28" t="n">
-        <v>1733.399901212125</v>
+        <v>1514.479777181478</v>
       </c>
       <c r="X28" t="n">
-        <v>1488.008146545537</v>
+        <v>1269.08802251489</v>
       </c>
       <c r="Y28" t="n">
-        <v>1260.588475859645</v>
+        <v>1041.668351828999</v>
       </c>
     </row>
     <row r="29">
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1036.216302815308</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>863.6545912985331</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>697.7765985000558</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>528.018594750793</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6643,28 +6643,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T31" t="n">
-        <v>2538.261260176947</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U31" t="n">
-        <v>2259.828259430053</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V31" t="n">
-        <v>1972.872751300483</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W31" t="n">
-        <v>1700.846346886775</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X31" t="n">
-        <v>1455.454592220187</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y31" t="n">
-        <v>1228.034921534295</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="32">
@@ -6850,7 +6850,7 @@
         <v>298.0235489799771</v>
       </c>
       <c r="H34" t="n">
-        <v>174.5210820832277</v>
+        <v>174.5210820832282</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6935,10 +6935,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J35" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>306.120802776629</v>
       </c>
       <c r="L35" t="n">
         <v>306.120802776629</v>
@@ -7011,22 +7011,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="M36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="O36" t="n">
         <v>287.8657185439749</v>
@@ -7072,19 +7072,19 @@
         <v>1066.521048992528</v>
       </c>
       <c r="C37" t="n">
-        <v>910.3590448886287</v>
+        <v>910.3590448886291</v>
       </c>
       <c r="D37" t="n">
-        <v>760.8807595030275</v>
+        <v>760.8807595030279</v>
       </c>
       <c r="E37" t="n">
-        <v>607.5224631666409</v>
+        <v>607.5224631666413</v>
       </c>
       <c r="F37" t="n">
-        <v>447.2151165412733</v>
+        <v>447.2151165412737</v>
       </c>
       <c r="G37" t="n">
-        <v>298.0235489799771</v>
+        <v>298.0235489799775</v>
       </c>
       <c r="H37" t="n">
         <v>174.5210820832282</v>
@@ -7114,10 +7114,10 @@
         <v>2663.241147956766</v>
       </c>
       <c r="Q37" t="n">
-        <v>2847.507276056458</v>
+        <v>2847.507276056459</v>
       </c>
       <c r="R37" t="n">
-        <v>2842.489162174706</v>
+        <v>2842.489162174707</v>
       </c>
       <c r="S37" t="n">
         <v>2699.647500885579</v>
@@ -7126,16 +7126,16 @@
         <v>2470.16776187691</v>
       </c>
       <c r="U37" t="n">
-        <v>2208.134468542891</v>
+        <v>2208.134468542892</v>
       </c>
       <c r="V37" t="n">
-        <v>1937.578667826198</v>
+        <v>1937.578667826199</v>
       </c>
       <c r="W37" t="n">
         <v>1681.951970825366</v>
       </c>
       <c r="X37" t="n">
-        <v>1452.959923571654</v>
+        <v>1452.959923571655</v>
       </c>
       <c r="Y37" t="n">
         <v>1241.939960298639</v>
@@ -7148,37 +7148,37 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2425.39087720671</v>
+        <v>2425.390877206711</v>
       </c>
       <c r="C38" t="n">
         <v>2003.64811180301</v>
       </c>
       <c r="D38" t="n">
-        <v>1584.13803439033</v>
+        <v>1584.138034390331</v>
       </c>
       <c r="E38" t="n">
         <v>1166.762996961502</v>
       </c>
       <c r="F38" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835861</v>
       </c>
       <c r="G38" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L38" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M38" t="n">
         <v>1254.614538886369</v>
@@ -7190,22 +7190,22 @@
         <v>3360.525188893122</v>
       </c>
       <c r="P38" t="n">
-        <v>4162.682333079242</v>
+        <v>4188.835063726518</v>
       </c>
       <c r="Q38" t="n">
-        <v>4709.181119037837</v>
+        <v>4735.333849685113</v>
       </c>
       <c r="R38" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S38" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T38" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U38" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V38" t="n">
         <v>4018.375659750116</v>
@@ -7214,7 +7214,7 @@
         <v>3629.919912574026</v>
       </c>
       <c r="X38" t="n">
-        <v>3227.177156566212</v>
+        <v>3227.177156566213</v>
       </c>
       <c r="Y38" t="n">
         <v>2835.290740278742</v>
@@ -7245,25 +7245,25 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N39" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O39" t="n">
         <v>283.1715819490133</v>
@@ -7327,7 +7327,7 @@
         <v>169.8269454882664</v>
       </c>
       <c r="I40" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J40" t="n">
         <v>200.2197420758676</v>
@@ -7354,7 +7354,7 @@
         <v>2842.813139461496</v>
       </c>
       <c r="R40" t="n">
-        <v>2837.795025579744</v>
+        <v>2837.795025579745</v>
       </c>
       <c r="S40" t="n">
         <v>2694.953364290617</v>
@@ -7397,58 +7397,58 @@
         <v>1166.762996961502</v>
       </c>
       <c r="F41" t="n">
-        <v>755.2952747835855</v>
+        <v>755.2952747835856</v>
       </c>
       <c r="G41" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K41" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L41" t="n">
-        <v>1172.626669928677</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M41" t="n">
-        <v>1228.461808239093</v>
+        <v>1228.461808239092</v>
       </c>
       <c r="N41" t="n">
-        <v>2354.19279167554</v>
+        <v>2354.192791675539</v>
       </c>
       <c r="O41" t="n">
-        <v>3334.372458245846</v>
+        <v>3334.372458245845</v>
       </c>
       <c r="P41" t="n">
-        <v>4162.682333079242</v>
+        <v>4162.682333079241</v>
       </c>
       <c r="Q41" t="n">
-        <v>4709.181119037837</v>
+        <v>4709.181119037836</v>
       </c>
       <c r="R41" t="n">
-        <v>4878.335183790893</v>
+        <v>4878.335183790892</v>
       </c>
       <c r="S41" t="n">
         <v>4811.083017387606</v>
       </c>
       <c r="T41" t="n">
-        <v>4607.41549767352</v>
+        <v>4607.415497673521</v>
       </c>
       <c r="U41" t="n">
-        <v>4364.592902403413</v>
+        <v>4364.592902403414</v>
       </c>
       <c r="V41" t="n">
         <v>4018.375659750116</v>
       </c>
       <c r="W41" t="n">
-        <v>3629.919912574025</v>
+        <v>3629.919912574026</v>
       </c>
       <c r="X41" t="n">
         <v>3227.177156566213</v>
@@ -7482,25 +7482,25 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="I42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="K42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="L42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="M42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="N42" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="O42" t="n">
         <v>283.1715819490133</v>
@@ -7546,25 +7546,25 @@
         <v>1061.826912397566</v>
       </c>
       <c r="C43" t="n">
-        <v>905.6649082936674</v>
+        <v>905.6649082936667</v>
       </c>
       <c r="D43" t="n">
-        <v>756.1866229080662</v>
+        <v>756.1866229080656</v>
       </c>
       <c r="E43" t="n">
-        <v>602.8283265716796</v>
+        <v>602.828326571679</v>
       </c>
       <c r="F43" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463113</v>
       </c>
       <c r="G43" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850151</v>
       </c>
       <c r="H43" t="n">
         <v>169.8269454882664</v>
       </c>
       <c r="I43" t="n">
-        <v>97.56670367581786</v>
+        <v>97.56670367581785</v>
       </c>
       <c r="J43" t="n">
         <v>200.2197420758676</v>
@@ -7597,10 +7597,10 @@
         <v>2694.953364290617</v>
       </c>
       <c r="T43" t="n">
-        <v>2465.473625281949</v>
+        <v>2465.473625281948</v>
       </c>
       <c r="U43" t="n">
-        <v>2203.44033194793</v>
+        <v>2203.440331947929</v>
       </c>
       <c r="V43" t="n">
         <v>1932.884531231236</v>
@@ -7609,7 +7609,7 @@
         <v>1677.257834230404</v>
       </c>
       <c r="X43" t="n">
-        <v>1448.265786976693</v>
+        <v>1448.265786976692</v>
       </c>
       <c r="Y43" t="n">
         <v>1237.245823703677</v>
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2425.390877206709</v>
+        <v>2425.39087720671</v>
       </c>
       <c r="C44" t="n">
         <v>2003.648111803009</v>
       </c>
       <c r="D44" t="n">
-        <v>1584.138034390329</v>
+        <v>1584.13803439033</v>
       </c>
       <c r="E44" t="n">
-        <v>1166.7629969615</v>
+        <v>1166.762996961501</v>
       </c>
       <c r="F44" t="n">
-        <v>755.2952747835848</v>
+        <v>755.2952747835852</v>
       </c>
       <c r="G44" t="n">
         <v>370.2971508197255</v>
       </c>
       <c r="H44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I44" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J44" t="n">
-        <v>97.56670367581785</v>
+        <v>532.8213911287357</v>
       </c>
       <c r="K44" t="n">
-        <v>97.56670367581785</v>
+        <v>1367.171683086914</v>
       </c>
       <c r="L44" t="n">
-        <v>97.56670367581785</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="M44" t="n">
-        <v>1254.614538886369</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="N44" t="n">
-        <v>2380.345522322816</v>
+        <v>2442.231649339773</v>
       </c>
       <c r="O44" t="n">
-        <v>3360.525188893122</v>
+        <v>3422.411315910079</v>
       </c>
       <c r="P44" t="n">
-        <v>4162.682333079241</v>
+        <v>4250.721190743476</v>
       </c>
       <c r="Q44" t="n">
-        <v>4709.181119037836</v>
+        <v>4797.21997670207</v>
       </c>
       <c r="R44" t="n">
-        <v>4878.335183790892</v>
+        <v>4878.335183790891</v>
       </c>
       <c r="S44" t="n">
-        <v>4811.083017387606</v>
+        <v>4811.083017387605</v>
       </c>
       <c r="T44" t="n">
         <v>4607.41549767352</v>
       </c>
       <c r="U44" t="n">
-        <v>4364.592902403412</v>
+        <v>4364.592902403413</v>
       </c>
       <c r="V44" t="n">
-        <v>4018.375659750115</v>
+        <v>4018.375659750116</v>
       </c>
       <c r="W44" t="n">
-        <v>3629.919912574024</v>
+        <v>3629.919912574025</v>
       </c>
       <c r="X44" t="n">
-        <v>3227.177156566211</v>
+        <v>3227.177156566212</v>
       </c>
       <c r="Y44" t="n">
-        <v>2835.29074027874</v>
+        <v>2835.290740278741</v>
       </c>
     </row>
     <row r="45">
@@ -7719,25 +7719,25 @@
         <v>139.3023558596054</v>
       </c>
       <c r="H45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="I45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="K45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="L45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="M45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="N45" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="O45" t="n">
         <v>283.1715819490133</v>
@@ -7792,16 +7792,16 @@
         <v>602.8283265716796</v>
       </c>
       <c r="F46" t="n">
-        <v>442.520979946312</v>
+        <v>442.5209799463119</v>
       </c>
       <c r="G46" t="n">
-        <v>293.3294123850158</v>
+        <v>293.3294123850157</v>
       </c>
       <c r="H46" t="n">
-        <v>169.8269454882664</v>
+        <v>169.8269454882663</v>
       </c>
       <c r="I46" t="n">
-        <v>97.56670367581785</v>
+        <v>97.56670367581783</v>
       </c>
       <c r="J46" t="n">
         <v>200.2197420758676</v>
@@ -7816,13 +7816,13 @@
         <v>1400.892005301957</v>
       </c>
       <c r="N46" t="n">
-        <v>1859.224161694961</v>
+        <v>1859.224161694962</v>
       </c>
       <c r="O46" t="n">
         <v>2294.966764156103</v>
       </c>
       <c r="P46" t="n">
-        <v>2658.547011361804</v>
+        <v>2658.547011361805</v>
       </c>
       <c r="Q46" t="n">
         <v>2842.813139461497</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>42.55209558322787</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>394.8387895261749</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8219,22 +8219,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>584.9855473858936</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482919</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482919</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8304,16 +8304,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>348.0660989389747</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482919</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>33.39342414375216</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821538</v>
+        <v>169.5019405968046</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8526,10 +8526,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,19 +8541,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8614,22 +8614,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>115.4433635180153</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
         <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8687,22 +8687,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>702.6670879902572</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>987.6665281204156</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>987.6665281204157</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>546.7317209713292</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8763,13 +8763,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8781,10 +8781,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,7 +8930,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -9000,13 +9000,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9018,10 +9018,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9161,13 +9161,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -9237,13 +9237,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9255,16 +9255,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>638.2669124058198</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9398,13 +9398,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -9474,10 +9474,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9492,7 +9492,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -9635,16 +9635,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -9711,10 +9711,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -9729,7 +9729,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -9878,7 +9878,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -9890,13 +9890,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -10659,7 +10659,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -10838,13 +10838,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>810.2597416021417</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>144.4457920260402</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10914,7 +10914,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -11063,10 +11063,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>56.39912960648053</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -11151,7 +11151,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -11294,31 +11294,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>810.2597416021408</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -22544,16 +22544,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>33.63483597134478</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -22562,7 +22562,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>31.31482481778312</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>23.72813900749081</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22610,10 +22610,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,10 +23273,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>227.7125662215972</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>8.728037695085391</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23428,13 +23428,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>139.5921776627262</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>223.1369608195779</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23546,7 +23546,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23653,7 +23653,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>139.5921776627261</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23887,16 +23887,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>29.1114668004372</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23905,10 +23905,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24127,7 +24127,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24142,7 +24142,7 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
         <v>87.77334973307141</v>
@@ -24175,7 +24175,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>107.2592358276476</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,7 +24376,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>138.5031525665292</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,10 +24613,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>111.4236523045829</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -24649,13 +24649,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>58.91774794908518</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24847,16 +24847,16 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>143.6516710866794</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,13 +24883,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>3.146865729424327</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>4.263256414560601e-13</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25594,7 +25594,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>4.174438572590589e-13</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25801,7 +25801,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>5.968558980384842e-13</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>840024.0082506507</v>
+        <v>718232.6884472275</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>743052.5087689686</v>
+        <v>864843.8285723923</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>895657.8930334989</v>
+        <v>895657.8930334988</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>895657.8930334992</v>
+        <v>895657.8930334989</v>
       </c>
     </row>
     <row r="8">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>895657.8930334989</v>
+        <v>895657.8930334988</v>
       </c>
     </row>
     <row r="11">
@@ -26311,16 +26311,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>24706.58847796032</v>
+        <v>21124.49083668316</v>
       </c>
       <c r="C2" t="n">
         <v>26807.36599452042</v>
       </c>
       <c r="D2" t="n">
-        <v>26807.36599452043</v>
+        <v>26807.36599452042</v>
       </c>
       <c r="E2" t="n">
-        <v>21854.48555202849</v>
+        <v>25436.58319330566</v>
       </c>
       <c r="F2" t="n">
         <v>26342.87920686762</v>
@@ -26347,10 +26347,10 @@
         <v>26807.36599452044</v>
       </c>
       <c r="N2" t="n">
-        <v>26807.36599452043</v>
+        <v>26807.36599452042</v>
       </c>
       <c r="O2" t="n">
-        <v>26807.36599452043</v>
+        <v>26807.36599452042</v>
       </c>
       <c r="P2" t="n">
         <v>26807.36599452042</v>
@@ -26366,22 +26366,22 @@
         <v>142191.3006597099</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>78545.24144524566</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>30.57595066268447</v>
       </c>
       <c r="E3" t="n">
-        <v>168210.0880864998</v>
+        <v>164835.5352679184</v>
       </c>
       <c r="F3" t="n">
-        <v>83262.72935658728</v>
+        <v>16812.40227510025</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.22694927995326e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26390,16 +26390,16 @@
         <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>62571.54417371058</v>
       </c>
       <c r="L3" t="n">
-        <v>12988.5682709979</v>
+        <v>13013.48053938527</v>
       </c>
       <c r="M3" t="n">
-        <v>140394.22459628</v>
+        <v>137577.7007378519</v>
       </c>
       <c r="N3" t="n">
-        <v>56802.80065713893</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,22 +26415,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>145187.0004788318</v>
+        <v>104296.1325766029</v>
       </c>
       <c r="C4" t="n">
-        <v>169168.0932697598</v>
+        <v>113526.9335845149</v>
       </c>
       <c r="D4" t="n">
-        <v>169168.0932697598</v>
+        <v>113504.4062182506</v>
       </c>
       <c r="E4" t="n">
-        <v>668.9466039800579</v>
+        <v>778.5914659720129</v>
       </c>
       <c r="F4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.332390782602</v>
       </c>
       <c r="G4" t="n">
-        <v>806.3323907826023</v>
+        <v>806.3323907826416</v>
       </c>
       <c r="H4" t="n">
         <v>806.3323907826023</v>
@@ -26439,16 +26439,16 @@
         <v>806.3323907826023</v>
       </c>
       <c r="J4" t="n">
-        <v>806.3323907826021</v>
+        <v>806.3323907826023</v>
       </c>
       <c r="K4" t="n">
         <v>806.3323907826023</v>
       </c>
       <c r="L4" t="n">
-        <v>6148.690207415867</v>
+        <v>6148.690207415869</v>
       </c>
       <c r="M4" t="n">
-        <v>6148.690207415867</v>
+        <v>6148.690207415869</v>
       </c>
       <c r="N4" t="n">
         <v>16466.62778780235</v>
@@ -26470,19 +26470,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74206.53989253615</v>
       </c>
       <c r="D5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>60050.12490972127</v>
+        <v>74150.69479362153</v>
       </c>
       <c r="F5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="G5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.23860579249</v>
       </c>
       <c r="H5" t="n">
         <v>77718.23860579252</v>
@@ -26503,13 +26503,13 @@
         <v>79083.15853826067</v>
       </c>
       <c r="N5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="O5" t="n">
-        <v>75515.61472608973</v>
+        <v>75515.61472608971</v>
       </c>
       <c r="P5" t="n">
-        <v>75515.61472608971</v>
+        <v>75515.6147260897</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-322096.5007978037</v>
+        <v>-285071.8742947439</v>
       </c>
       <c r="C6" t="n">
-        <v>-201785.5154124617</v>
+        <v>-239471.3489277763</v>
       </c>
       <c r="D6" t="n">
-        <v>-201785.5154124617</v>
+        <v>-160940.1407361506</v>
       </c>
       <c r="E6" t="n">
-        <v>-207074.6740481726</v>
+        <v>-214396.7774742671</v>
       </c>
       <c r="F6" t="n">
-        <v>-135444.4211462948</v>
+        <v>-69017.31840419036</v>
       </c>
       <c r="G6" t="n">
-        <v>-52181.69178970749</v>
+        <v>-52204.91612909016</v>
       </c>
       <c r="H6" t="n">
-        <v>-52181.6917897075</v>
+        <v>-52204.91612909026</v>
       </c>
       <c r="I6" t="n">
-        <v>-52181.6917897075</v>
+        <v>-52204.91612909015</v>
       </c>
       <c r="J6" t="n">
-        <v>-163196.1571346977</v>
+        <v>-163219.3814740803</v>
       </c>
       <c r="K6" t="n">
-        <v>-52181.6917897075</v>
+        <v>-114776.4603028007</v>
       </c>
       <c r="L6" t="n">
-        <v>-71413.051022154</v>
+        <v>-71437.96329054137</v>
       </c>
       <c r="M6" t="n">
-        <v>-198818.7073474361</v>
+        <v>-196002.183489008</v>
       </c>
       <c r="N6" t="n">
-        <v>-121977.6771765106</v>
+        <v>-65174.87651937164</v>
       </c>
       <c r="O6" t="n">
-        <v>-65174.87651937165</v>
+        <v>-65174.87651937164</v>
       </c>
       <c r="P6" t="n">
-        <v>-65174.87651937164</v>
+        <v>-65174.87651937162</v>
       </c>
     </row>
   </sheetData>
@@ -26790,13 +26790,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482919</v>
       </c>
       <c r="D4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>987.6665281204157</v>
+        <v>1219.583795947723</v>
       </c>
       <c r="F4" t="n">
         <v>1278.260503384745</v>
@@ -27012,22 +27012,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>243.1209170281876</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>0.09843205956502743</v>
       </c>
       <c r="E4" t="n">
-        <v>563.3706706003114</v>
+        <v>552.0685893398656</v>
       </c>
       <c r="F4" t="n">
-        <v>290.5939752643295</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27036,16 +27036,16 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281876</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.09843205956502743</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>552.0685893398656</v>
       </c>
       <c r="N4" t="n">
-        <v>231.9172678273075</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27258,22 +27258,22 @@
         <v>424.2958575201043</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>243.1209170281876</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>0.09843205956502743</v>
       </c>
       <c r="M4" t="n">
-        <v>563.3706706003114</v>
+        <v>552.0685893398656</v>
       </c>
       <c r="N4" t="n">
-        <v>290.5939752643295</v>
+        <v>58.67670743702229</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27379,13 +27379,13 @@
         <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>254.9240281934328</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,19 +27427,19 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>29.85781716861838</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -27537,22 +27537,22 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>111.1003006138156</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>162.7360778789544</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,7 +27585,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -27594,7 +27594,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27603,7 +27603,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,13 +27613,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>9.465190568306582</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27628,10 +27628,10 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27664,16 +27664,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>154.5288611677109</v>
       </c>
       <c r="U5" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
-        <v>281.1200448157201</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
         <v>400</v>
@@ -27682,7 +27682,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27777,22 +27777,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>161.1778158811682</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27822,13 +27822,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>259.2161985442992</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>195.939159247575</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>367.7418326819454</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
         <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28017,16 +28017,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,25 +28056,25 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>6.409048035123362</v>
+        <v>58.6687379456815</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>8.682195192673604e-13</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -30885,7 +30885,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="M46" t="n">
-        <v>16.23571033874737</v>
+        <v>16.23571033874759</v>
       </c>
       <c r="N46" t="n">
         <v>16.23571033874737</v>
@@ -30897,7 +30897,7 @@
         <v>16.23571033874737</v>
       </c>
       <c r="Q46" t="n">
-        <v>16.23571033874759</v>
+        <v>16.23571033874737</v>
       </c>
       <c r="R46" t="n">
         <v>16.23571033874737</v>
@@ -34857,22 +34857,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>422.4342240080415</v>
+        <v>42.55209558322787</v>
       </c>
       <c r="M4" t="n">
         <v>424.2958575201043</v>
       </c>
       <c r="N4" t="n">
-        <v>394.8387895261749</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>351.0170646165068</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34939,22 +34939,22 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>584.9855473858936</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>667.4167745482919</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482919</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35024,16 +35024,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>424.2958575201043</v>
+        <v>348.0660989389747</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>667.4167745482919</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
-        <v>33.39342414375216</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N7" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>169.8916917821539</v>
+        <v>169.5019405968046</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
-        <v>236.2898988798406</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="O8" t="n">
         <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>424.2958575201044</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35246,10 +35246,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,19 +35261,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.7962490401609</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q9" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>118.3563415094341</v>
+        <v>112.1603739174598</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>115.4433635180153</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,22 +35407,22 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>702.6670879902572</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>987.6665281204156</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>987.6665281204157</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O11" t="n">
-        <v>546.7317209713292</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458546</v>
@@ -35431,7 +35431,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,13 +35483,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>0.03656536949901579</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -35501,10 +35501,10 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>187.4796750234298</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35650,7 +35650,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>205.9191540463134</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="M14" t="n">
         <v>1168.735187081365</v>
@@ -35720,13 +35720,13 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -35738,10 +35738,10 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35881,13 +35881,13 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>205.9191540463116</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>1168.735187081365</v>
@@ -35957,13 +35957,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35975,16 +35975,16 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>828.0031984638366</v>
+        <v>638.2669124058198</v>
       </c>
       <c r="Q18" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36118,13 +36118,13 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>205.9191540463134</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>1168.735187081365</v>
@@ -36194,10 +36194,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -36212,7 +36212,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>828.0031984638366</v>
@@ -36355,16 +36355,16 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N23" t="n">
         <v>1137.102003471159</v>
@@ -36431,10 +36431,10 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -36449,7 +36449,7 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>828.0031984638366</v>
@@ -36598,7 +36598,7 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="M26" t="n">
         <v>1168.735187081365</v>
@@ -36610,13 +36610,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>679.5583048465032</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36686,10 +36686,10 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>187.4796750234296</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>103.689937777828</v>
+        <v>103.6899377778281</v>
       </c>
       <c r="K34" t="n">
         <v>293.7695028348439</v>
       </c>
       <c r="L34" t="n">
-        <v>438.6699343467889</v>
+        <v>438.6699343467888</v>
       </c>
       <c r="M34" t="n">
         <v>480.360828703306</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>205.9191540463125</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>205.9191540463125</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>1168.735187081365</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>187.4796750234296</v>
+        <v>161.1527324371088</v>
       </c>
       <c r="P36" t="n">
         <v>828.0031984638366</v>
@@ -37479,7 +37479,7 @@
         <v>440.1440428900416</v>
       </c>
       <c r="P37" t="n">
-        <v>367.2527749552542</v>
+        <v>367.2527749552546</v>
       </c>
       <c r="Q37" t="n">
         <v>186.127402120901</v>
@@ -37558,13 +37558,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>810.2597416021417</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>144.4457920260402</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37634,7 +37634,7 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>187.4796750234297</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P39" t="n">
         <v>828.0031984638366</v>
@@ -37783,10 +37783,10 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>56.39912960648053</v>
+        <v>1142.318287437651</v>
       </c>
       <c r="N41" t="n">
         <v>1137.102003471159</v>
@@ -37871,7 +37871,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>187.4796750234297</v>
+        <v>187.4796750234298</v>
       </c>
       <c r="P42" t="n">
         <v>828.0031984638366</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>810.2597416021408</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>81.93455261497093</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38181,19 +38181,19 @@
         <v>438.6699343467889</v>
       </c>
       <c r="M46" t="n">
-        <v>480.3608287033061</v>
+        <v>480.3608287033063</v>
       </c>
       <c r="N46" t="n">
         <v>462.9617741343479</v>
       </c>
       <c r="O46" t="n">
-        <v>440.1440428900416</v>
+        <v>440.1440428900419</v>
       </c>
       <c r="P46" t="n">
         <v>367.2527749552542</v>
       </c>
       <c r="Q46" t="n">
-        <v>186.1274021209015</v>
+        <v>186.127402120901</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
